--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value987.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value987.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.54065999866</v>
+        <v>0.601557195186615</v>
       </c>
       <c r="B1">
-        <v>4.256288138037859</v>
+        <v>0.5433940887451172</v>
       </c>
       <c r="C1">
-        <v>4.49497006913686</v>
+        <v>3.65119457244873</v>
       </c>
       <c r="D1">
-        <v>1.308508654404066</v>
+        <v>1.706456303596497</v>
       </c>
       <c r="E1">
-        <v>0.796042490220391</v>
+        <v>1.191561937332153</v>
       </c>
     </row>
   </sheetData>
